--- a/public/templates/specification.xlsx
+++ b/public/templates/specification.xlsx
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F24" authorId="0" shapeId="0">
+    <comment ref="F28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -576,26 +576,26 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -906,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L33"/>
+  <dimension ref="A2:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,14 +944,14 @@
         <v>25</v>
       </c>
       <c r="C4" s="40" t="e">
-        <f>D22/C22/8</f>
+        <f>D26/C26/8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
       <c r="H4" s="9"/>
       <c r="I4" s="40" t="e">
-        <f>J22/I22/8</f>
+        <f>J26/I26/8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J4" s="10"/>
@@ -1007,8 +1007,8 @@
       <c r="A7" s="32"/>
       <c r="B7" s="31"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="48" t="e">
-        <f>ROUND(C7/$C$22*$D$22,2)</f>
+      <c r="D7" s="46" t="e">
+        <f>ROUND(C7/$C$26*$D$26,2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E7" s="29">
@@ -1018,17 +1018,17 @@
         <f>IF(E7=20%,ROUND(D7/6,2),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="49" t="str">
-        <f t="shared" ref="H7:H21" si="0">IFERROR(D7/J7,"")</f>
-        <v/>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="48" t="e">
-        <f>ROUND(I7/$I$22*$J$22,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="52" t="e">
+      <c r="G7" s="49"/>
+      <c r="H7" s="47" t="str">
+        <f t="shared" ref="H7:H25" si="0">IFERROR(D7/J7,"")</f>
+        <v/>
+      </c>
+      <c r="I7" s="48"/>
+      <c r="J7" s="46" t="e">
+        <f>ROUND(I7/$I$26*$J$26,2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="50" t="e">
         <f>D7-F7-J7</f>
         <v>#DIV/0!</v>
       </c>
@@ -1041,33 +1041,33 @@
       <c r="A8" s="32"/>
       <c r="B8" s="31"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="48" t="e">
-        <f t="shared" ref="D8:D21" si="1">ROUND(C8/$C$22*$D$22,2)</f>
+      <c r="D8" s="46" t="e">
+        <f t="shared" ref="D8:D25" si="1">ROUND(C8/$C$26*$D$26,2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E8" s="29">
         <v>0.2</v>
       </c>
       <c r="F8" s="17" t="e">
-        <f t="shared" ref="F8:F21" si="2">IF(E8=20%,ROUND(D8/6,2),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="49" t="str">
+        <f t="shared" ref="F8:F25" si="2">IF(E8=20%,ROUND(D8/6,2),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="49"/>
+      <c r="H8" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="48" t="e">
-        <f t="shared" ref="J8:J21" si="3">ROUND(I8/$I$22*$J$22,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="52" t="e">
-        <f t="shared" ref="K8:K21" si="4">D8-F8-J8</f>
+      <c r="I8" s="48"/>
+      <c r="J8" s="46" t="e">
+        <f t="shared" ref="J8:J25" si="3">ROUND(I8/$I$26*$J$26,2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="50" t="e">
+        <f t="shared" ref="K8:K25" si="4">D8-F8-J8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L8" s="36" t="str">
-        <f t="shared" ref="L8:L21" si="5">IFERROR(K8/D8,"")</f>
+        <f t="shared" ref="L8:L25" si="5">IFERROR(K8/D8,"")</f>
         <v/>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       <c r="A9" s="32"/>
       <c r="B9" s="31"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="48" t="e">
+      <c r="D9" s="46" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1086,17 +1086,17 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="49" t="str">
+      <c r="G9" s="49"/>
+      <c r="H9" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="48" t="e">
+      <c r="I9" s="48"/>
+      <c r="J9" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="52" t="e">
+      <c r="K9" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="A10" s="32"/>
       <c r="B10" s="31"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="48" t="e">
+      <c r="D10" s="46" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1120,17 +1120,17 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="49" t="str">
+      <c r="G10" s="49"/>
+      <c r="H10" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="48" t="e">
+      <c r="I10" s="48"/>
+      <c r="J10" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="52" t="e">
+      <c r="K10" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="A11" s="32"/>
       <c r="B11" s="31"/>
       <c r="C11" s="28"/>
-      <c r="D11" s="48" t="e">
+      <c r="D11" s="46" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1154,17 +1154,17 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="49" t="str">
+      <c r="G11" s="49"/>
+      <c r="H11" s="47" t="str">
         <f>IFERROR(D11/J11,"")</f>
         <v/>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="48" t="e">
+      <c r="I11" s="48"/>
+      <c r="J11" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="52" t="e">
+      <c r="K11" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1177,7 +1177,7 @@
       <c r="A12" s="32"/>
       <c r="B12" s="31"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="48" t="e">
+      <c r="D12" s="46" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1188,17 +1188,17 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="49" t="str">
+      <c r="G12" s="49"/>
+      <c r="H12" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="48" t="e">
+      <c r="I12" s="48"/>
+      <c r="J12" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="52" t="e">
+      <c r="K12" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="A13" s="32"/>
       <c r="B13" s="31"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="48" t="e">
+      <c r="D13" s="46" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1222,17 +1222,17 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="49" t="str">
+      <c r="G13" s="49"/>
+      <c r="H13" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="48" t="e">
+      <c r="I13" s="48"/>
+      <c r="J13" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="52" t="e">
+      <c r="K13" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="A14" s="32"/>
       <c r="B14" s="31"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="48" t="e">
+      <c r="D14" s="46" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1256,17 +1256,17 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="49" t="str">
+      <c r="G14" s="49"/>
+      <c r="H14" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="48" t="e">
+      <c r="I14" s="48"/>
+      <c r="J14" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="52" t="e">
+      <c r="K14" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="A15" s="32"/>
       <c r="B15" s="31"/>
       <c r="C15" s="28"/>
-      <c r="D15" s="48" t="e">
+      <c r="D15" s="46" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1290,17 +1290,17 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="49" t="str">
+      <c r="G15" s="49"/>
+      <c r="H15" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="48" t="e">
+      <c r="I15" s="48"/>
+      <c r="J15" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="52" t="e">
+      <c r="K15" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="A16" s="32"/>
       <c r="B16" s="31"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="48" t="e">
+      <c r="D16" s="46" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1324,17 +1324,17 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="49" t="str">
+      <c r="G16" s="49"/>
+      <c r="H16" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="48" t="e">
+      <c r="I16" s="48"/>
+      <c r="J16" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="52" t="e">
+      <c r="K16" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="A17" s="32"/>
       <c r="B17" s="31"/>
       <c r="C17" s="28"/>
-      <c r="D17" s="48" t="e">
+      <c r="D17" s="46" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1358,17 +1358,17 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="49" t="str">
+      <c r="G17" s="49"/>
+      <c r="H17" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="48" t="e">
+      <c r="I17" s="48"/>
+      <c r="J17" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="52" t="e">
+      <c r="K17" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1381,7 +1381,7 @@
       <c r="A18" s="32"/>
       <c r="B18" s="31"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="48" t="e">
+      <c r="D18" s="46" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1392,17 +1392,17 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="49" t="str">
+      <c r="G18" s="49"/>
+      <c r="H18" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="48" t="e">
+      <c r="I18" s="48"/>
+      <c r="J18" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="52" t="e">
+      <c r="K18" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="A19" s="32"/>
       <c r="B19" s="31"/>
       <c r="C19" s="28"/>
-      <c r="D19" s="48" t="e">
+      <c r="D19" s="46" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1426,17 +1426,17 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="49" t="str">
+      <c r="G19" s="49"/>
+      <c r="H19" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="48" t="e">
+      <c r="I19" s="48"/>
+      <c r="J19" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="52" t="e">
+      <c r="K19" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="A20" s="32"/>
       <c r="B20" s="31"/>
       <c r="C20" s="28"/>
-      <c r="D20" s="48" t="e">
+      <c r="D20" s="46" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1460,17 +1460,17 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="49" t="str">
+      <c r="G20" s="49"/>
+      <c r="H20" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="48" t="e">
+      <c r="I20" s="48"/>
+      <c r="J20" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="52" t="e">
+      <c r="K20" s="50" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1483,225 +1483,349 @@
       <c r="A21" s="32"/>
       <c r="B21" s="31"/>
       <c r="C21" s="28"/>
-      <c r="D21" s="48" t="e">
-        <f t="shared" si="1"/>
+      <c r="D21" s="46" t="e">
+        <f t="shared" ref="D21:D25" si="6">ROUND(C21/$C$26*$D$26,2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="F21" s="17" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="48" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="52" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="36" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="F21" s="17">
+        <f t="shared" ref="F21:F25" si="7">IF(E21=20%,ROUND(D21/6,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="49"/>
+      <c r="H21" s="47" t="str">
+        <f t="shared" ref="H21:H25" si="8">IFERROR(D21/J21,"")</f>
+        <v/>
+      </c>
+      <c r="I21" s="48"/>
+      <c r="J21" s="46" t="e">
+        <f t="shared" ref="J21:J25" si="9">ROUND(I21/$I$26*$J$26,2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="50" t="e">
+        <f t="shared" ref="K21:K25" si="10">D21-F21-J21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="36"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="46" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F22" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="47" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I22" s="48"/>
+      <c r="J22" s="46" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="50" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="36"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="46" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="49"/>
+      <c r="H23" s="47" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I23" s="48"/>
+      <c r="J23" s="46" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="50" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="36"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="46" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="29">
+        <v>4.2</v>
+      </c>
+      <c r="F24" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="49"/>
+      <c r="H24" s="47" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I24" s="48"/>
+      <c r="J24" s="46" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="50" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="36"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="46" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="49"/>
+      <c r="H25" s="47" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I25" s="48"/>
+      <c r="J25" s="46" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="50" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="22">
-        <f>SUM(C7:C21)</f>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="22">
+        <f>SUM(C7:C25)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D26" s="27">
         <v>1000000</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="16" t="e">
-        <f>SUM(F7:F21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="24">
-        <f t="shared" ref="H22" si="6">D22/J22</f>
+      <c r="E26" s="7"/>
+      <c r="F26" s="16" t="e">
+        <f>SUM(F7:F25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="24">
+        <f t="shared" ref="H26" si="11">D26/J26</f>
         <v>2.5</v>
       </c>
-      <c r="I22" s="22">
-        <f>SUM(I7:I21)</f>
+      <c r="I26" s="22">
+        <f>SUM(I7:I25)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J26" s="27">
         <v>400000</v>
       </c>
-      <c r="K22" s="16" t="e">
-        <f>D22-F22-J22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="37"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <f>MAX(A7:A21)</f>
+      <c r="K26" s="16" t="e">
+        <f>D26-F26-J26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="37"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f>MAX(A7:A25)</f>
         <v>0</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B27" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="41" t="e">
-        <f>SUM(D7:D21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="42" t="s">
+      <c r="D27" s="41" t="e">
+        <f>SUM(D7:D25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I27" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="41" t="e">
-        <f>SUM(J7:J21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="23" t="e">
-        <f>SUM(K7:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="F24" s="44">
-        <f>D22/6</f>
+      <c r="J27" s="41" t="e">
+        <f>SUM(J7:J25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="23" t="e">
+        <f>SUM(K7:K25)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="21"/>
+      <c r="F28" s="44">
+        <f>D26/6</f>
         <v>166666.66666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="12" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="J25" s="25" t="s">
+      <c r="F29" s="7"/>
+      <c r="J29" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K29" s="26">
         <v>0</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L29" s="45">
         <v>0.31</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="13" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="J26" s="8" t="s">
+      <c r="F30" s="7"/>
+      <c r="J30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K30" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="8" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="J27" s="25" t="s">
+      <c r="D31" s="33"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="J31" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K31" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="8" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="J28" s="12" t="s">
+      <c r="D32" s="33"/>
+      <c r="J32" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="16" t="e">
-        <f>K22-K25-K27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="38" t="e">
-        <f>K28/D22</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="8" t="s">
+      <c r="K32" s="16" t="e">
+        <f>K26-K29-K31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="38" t="e">
+        <f>K32/D26</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="19">
-        <f>D27*0.005</f>
+      <c r="D33" s="19">
+        <f>D31*0.005</f>
         <v>0</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E33" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="18"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C30" s="8" t="s">
+      <c r="J33" s="8"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="19">
-        <f>D27*0.05</f>
+      <c r="D34" s="19">
+        <f>D31*0.05</f>
         <v>0</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="18"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="34"/>
-      <c r="C32" s="35" t="s">
+      <c r="J34" s="8"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="34"/>
+      <c r="C36" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="47"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="34"/>
-      <c r="C33" s="35" t="s">
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="34"/>
+      <c r="C37" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="47"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="D37:K37"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Срок поставки" prompt="Сюда вписать срок поставки (оказания услуг) так, как он должен быть сформулирован в конкурсной заявке" sqref="D32:K32"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Условия оплаты" prompt="Сюда вписать условия (график) оплаты так, как это должно быть сформулирован в конкурсной заявке" sqref="D33:K33"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Срок поставки" prompt="Сюда вписать срок поставки (оказания услуг) так, как он должен быть сформулирован в конкурсной заявке" sqref="D36:K36"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Условия оплаты" prompt="Сюда вписать условия (график) оплаты так, как это должно быть сформулирован в конкурсной заявке" sqref="D37:K37"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
